--- a/JAVA 20 - Ho Minh Quan - Database Design.xlsx
+++ b/JAVA 20 - Ho Minh Quan - Database Design.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E609E9-8C59-4644-B9C2-12FA650ABD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1965" windowWidth="28800" windowHeight="15435" tabRatio="422" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11357" tabRatio="422" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="B1. Mô hình quan niệm (2)" sheetId="5" r:id="rId1"/>
@@ -14,7 +13,7 @@
     <sheet name="B3. Mô hình quan hệ" sheetId="3" r:id="rId4"/>
     <sheet name="4. Cơ sở dữ liệu vật lý" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="S4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="S4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,31 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Đã đặt hàng, đang đóng gói, đang giao, giao thành công, giao thất bại</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="S13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,12 +81,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="W4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="W4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="W13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="125">
   <si>
     <t>Xác định các đối tượng cần lưu trữ
 Xác định các thuộc tính, thông tin của từng đối tượng</t>
@@ -620,53 +595,128 @@
     <t>field 5</t>
   </si>
   <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>Field 1</t>
-  </si>
-  <si>
-    <t>Field 2</t>
-  </si>
-  <si>
-    <t>Field 3</t>
-  </si>
-  <si>
-    <t>Field 4</t>
-  </si>
-  <si>
-    <t>Field 5</t>
-  </si>
-  <si>
     <t>B2. Mô hình logic 
 ERD</t>
   </si>
   <si>
-    <t>Object 1</t>
-  </si>
-  <si>
-    <t>Att 1</t>
-  </si>
-  <si>
-    <t>Att 2</t>
-  </si>
-  <si>
-    <t>Att 3</t>
-  </si>
-  <si>
-    <t>Object 2</t>
-  </si>
-  <si>
-    <t>Object 3</t>
-  </si>
-  <si>
-    <t>Object 4</t>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>ID_PRODUCE</t>
+  </si>
+  <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>SALE_PRICES</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>ID_CUSTOMER</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>ID_PAYMENT</t>
+  </si>
+  <si>
+    <t>ITEM_DETAILS</t>
+  </si>
+  <si>
+    <t>ID_ITEM_DETAILS</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>TOTAL_MONEY</t>
+  </si>
+  <si>
+    <t>DELIVERY_FEE</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>NETWORK</t>
+  </si>
+  <si>
+    <t>ORDER_STATUS</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>CREATED_AT</t>
+  </si>
+  <si>
+    <t>ITEM-GROUP</t>
+  </si>
+  <si>
+    <t>EMPLOYEE</t>
+  </si>
+  <si>
+    <t>ID_ITEM-GROUP</t>
+  </si>
+  <si>
+    <t>ID_EMPLOYEE</t>
+  </si>
+  <si>
+    <t>AMOUT</t>
+  </si>
+  <si>
+    <t>ID_ORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL_MONEY  </t>
+  </si>
+  <si>
+    <t>PAYMENT_METHODS</t>
+  </si>
+  <si>
+    <t>BUY_PRICE</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>ID_ITEM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -904,7 +954,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,29 +1251,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2EE39A-42C2-4199-9C19-40FCCF443789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L51"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="23.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="22.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="1" customWidth="1"/>
-    <col min="13" max="101" width="22.7109375" style="1" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.69140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.84375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.69140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.15234375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.69140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.53515625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="22.69140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.53515625" style="1" customWidth="1"/>
+    <col min="13" max="101" width="22.69140625" style="1" customWidth="1"/>
+    <col min="102" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1231,14 +1281,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
     </row>
-    <row r="3" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -1249,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -1260,8 +1310,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>78</v>
       </c>
@@ -1296,7 +1346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>81</v>
       </c>
@@ -1315,7 +1365,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>82</v>
       </c>
@@ -1334,7 +1384,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>83</v>
       </c>
@@ -1351,7 +1401,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>84</v>
@@ -1366,7 +1416,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
         <v>85</v>
@@ -1381,7 +1431,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1394,7 +1444,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1407,7 +1457,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1420,7 +1470,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1433,7 +1483,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1446,7 +1496,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1459,7 +1509,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1472,7 +1522,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1485,8 +1535,8 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1494,7 +1544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1503,48 +1553,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D4"/>
@@ -1555,37 +1605,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+    <sheetView topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="23.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="22.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="1" customWidth="1"/>
-    <col min="13" max="101" width="22.7109375" style="1" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.69140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.84375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.69140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.15234375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.69140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.53515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.69140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.3828125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.69140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.53515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.53515625" style="1" customWidth="1"/>
+    <col min="13" max="101" width="22.69140625" style="1" customWidth="1"/>
+    <col min="102" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
     </row>
-    <row r="3" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -1596,7 +1649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -1607,181 +1660,243 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="5" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="H8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1790,7 +1905,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1803,7 +1918,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1816,8 +1931,8 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1825,7 +1940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1834,48 +1949,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D4"/>
@@ -1886,37 +2001,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="23.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="22.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="1" customWidth="1"/>
-    <col min="13" max="101" width="22.7109375" style="1" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.84375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.69140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.84375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.69140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.15234375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.69140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.53515625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="22.69140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="41.84375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.53515625" style="1" customWidth="1"/>
+    <col min="13" max="101" width="22.69140625" style="1" customWidth="1"/>
+    <col min="102" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
     </row>
-    <row r="3" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -1927,7 +2043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -1953,7 +2069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1994,66 +2110,133 @@
       <c r="R5" s="12"/>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+    <row r="6" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+    <row r="7" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+    <row r="8" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
+    <row r="9" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
+    <row r="10" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2065,13 +2248,19 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2079,22 +2268,31 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
+    <row r="12" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
+    <row r="13" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2106,10 +2304,14 @@
       <c r="M13" s="3"/>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
+    <row r="14" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2122,8 +2324,10 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="12"/>
     </row>
-    <row r="15" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+    <row r="15" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2138,10 +2342,14 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="12"/>
     </row>
-    <row r="16" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
+    <row r="16" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2153,8 +2361,10 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="12"/>
     </row>
-    <row r="17" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
+    <row r="17" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2169,7 +2379,7 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="12"/>
     </row>
-    <row r="18" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2183,7 +2393,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2197,8 +2407,8 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="25" t="s">
         <v>29</v>
       </c>
@@ -2214,7 +2424,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="25"/>
       <c r="B22" s="8" t="s">
         <v>23</v>
@@ -2228,7 +2438,7 @@
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
         <v>24</v>
@@ -2241,9 +2451,9 @@
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>25</v>
@@ -2257,7 +2467,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="27"/>
       <c r="B25" s="9" t="s">
         <v>26</v>
@@ -2271,7 +2481,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
         <v>28</v>
@@ -2282,31 +2492,31 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:D4"/>
@@ -2321,33 +2531,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="23.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="53.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" style="1" customWidth="1"/>
-    <col min="12" max="15" width="22.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="30.5703125" style="1" customWidth="1"/>
-    <col min="17" max="105" width="22.7109375" style="1" customWidth="1"/>
-    <col min="106" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.69140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.84375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.84375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.69140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.84375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.15234375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="53.53515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.69140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.53515625" style="1" customWidth="1"/>
+    <col min="12" max="15" width="22.69140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="30.53515625" style="1" customWidth="1"/>
+    <col min="17" max="105" width="22.69140625" style="1" customWidth="1"/>
+    <col min="106" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -2356,7 +2566,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -2369,7 +2579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -2400,7 +2610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="21" t="s">
         <v>36</v>
       </c>
@@ -2465,7 +2675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -2483,7 +2693,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2501,7 +2711,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2520,7 +2730,7 @@
       <c r="Q8" s="3"/>
       <c r="U8" s="11"/>
     </row>
-    <row r="9" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2538,7 +2748,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2558,7 +2768,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="12"/>
     </row>
-    <row r="11" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2575,7 +2785,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2593,7 +2803,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2612,7 +2822,7 @@
       <c r="Q13" s="3"/>
       <c r="U13" s="14"/>
     </row>
-    <row r="14" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2632,7 +2842,7 @@
       <c r="U14" s="11"/>
       <c r="V14" s="12"/>
     </row>
-    <row r="15" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2652,7 +2862,7 @@
       <c r="U15" s="11"/>
       <c r="V15" s="12"/>
     </row>
-    <row r="16" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2671,7 +2881,7 @@
       <c r="U16" s="11"/>
       <c r="V16" s="12"/>
     </row>
-    <row r="17" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2691,7 +2901,7 @@
       <c r="U17" s="11"/>
       <c r="V17" s="12"/>
     </row>
-    <row r="18" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2709,7 +2919,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2727,8 +2937,8 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="16"/>
       <c r="B21" s="22" t="s">
         <v>48</v>
@@ -2748,7 +2958,7 @@
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
     </row>
-    <row r="22" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="16"/>
       <c r="B22" s="22" t="s">
         <v>49</v>
@@ -2768,7 +2978,7 @@
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
     </row>
-    <row r="23" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B23" s="22" t="s">
         <v>50</v>
       </c>
@@ -2787,7 +2997,7 @@
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
     </row>
-    <row r="24" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B24" s="22" t="s">
         <v>51</v>
       </c>
@@ -2804,7 +3014,7 @@
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
     </row>
-    <row r="25" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2817,34 +3027,34 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.6">
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="28" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D4"/>
@@ -2856,140 +3066,140 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="23.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="255.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="255.53515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
